--- a/results/FrequencyTables/27341108_gRNA-9.xlsx
+++ b/results/FrequencyTables/27341108_gRNA-9.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.04</v>
+        <v>0.0205992509363296</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.917602996254682</v>
       </c>
       <c r="D2">
-        <v>0.04</v>
+        <v>0.0674157303370786</v>
       </c>
       <c r="E2">
-        <v>0.92</v>
+        <v>0.925093632958802</v>
       </c>
       <c r="F2">
-        <v>0.04</v>
+        <v>0.0617977528089888</v>
       </c>
       <c r="G2">
-        <v>0.06</v>
+        <v>0.0187265917602996</v>
       </c>
       <c r="H2">
-        <v>0.05</v>
+        <v>0.359550561797753</v>
       </c>
       <c r="I2">
-        <v>0.01</v>
+        <v>0.0187265917602996</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.0205992509363296</v>
       </c>
       <c r="K2">
-        <v>0.03</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="L2">
-        <v>0.05</v>
+        <v>0.0131086142322097</v>
       </c>
       <c r="M2">
-        <v>0.96</v>
+        <v>0.98876404494382</v>
       </c>
       <c r="N2">
-        <v>0.01</v>
+        <v>0.00561797752808989</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00936329588014981</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.99</v>
+        <v>0.955056179775281</v>
       </c>
       <c r="R2">
-        <v>0.01</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00561797752808989</v>
       </c>
       <c r="T2">
-        <v>0.01</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="V2">
-        <v>0.24</v>
+        <v>0.0842696629213483</v>
       </c>
       <c r="W2">
-        <v>0.01</v>
+        <v>0.0411985018726592</v>
       </c>
       <c r="X2">
-        <v>0.99</v>
+        <v>0.99250936329588</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.94</v>
+        <v>0.902621722846442</v>
       </c>
       <c r="C3">
-        <v>0.02</v>
+        <v>0.052434456928839</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="F3">
-        <v>0.87</v>
+        <v>0.908239700374532</v>
       </c>
       <c r="G3">
-        <v>0.71</v>
+        <v>0.898876404494382</v>
       </c>
       <c r="H3">
-        <v>0.95</v>
+        <v>0.629213483146067</v>
       </c>
       <c r="I3">
-        <v>0.05</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="J3">
-        <v>0.02</v>
+        <v>0.0205992509363296</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.00936329588014981</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="M3">
-        <v>0.01</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="P3">
-        <v>0.76</v>
+        <v>0.932584269662921</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.0411985018726592</v>
       </c>
       <c r="R3">
-        <v>0.01</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="S3">
-        <v>0.2</v>
+        <v>0.0580524344569288</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="U3">
-        <v>0.01</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="V3">
-        <v>0.01</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="W3">
-        <v>0.01</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="X3">
-        <v>0.01</v>
+        <v>0.00187265917602996</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="C4">
-        <v>0.03</v>
+        <v>0.0168539325842697</v>
       </c>
       <c r="D4">
-        <v>0.91</v>
+        <v>0.915730337078652</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>0.0617977528089888</v>
       </c>
       <c r="F4">
-        <v>0.05</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="G4">
-        <v>0.03</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.03</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>0.179775280898876</v>
       </c>
       <c r="L4">
-        <v>0.03</v>
+        <v>0.00936329588014981</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>0.99250936329588</v>
       </c>
       <c r="O4">
-        <v>0.01</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="Q4">
-        <v>0.01</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="R4">
-        <v>0.98</v>
+        <v>0.99625468164794</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00936329588014981</v>
       </c>
       <c r="T4">
-        <v>0.99</v>
+        <v>0.99625468164794</v>
       </c>
       <c r="U4">
-        <v>0.03</v>
+        <v>0.00749063670411985</v>
       </c>
       <c r="V4">
-        <v>0.75</v>
+        <v>0.908239700374532</v>
       </c>
       <c r="W4">
-        <v>0.98</v>
+        <v>0.955056179775281</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.00374531835205993</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,49 +687,49 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="C5">
-        <v>0.05</v>
+        <v>0.0131086142322097</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.00561797752808989</v>
       </c>
       <c r="E5">
-        <v>0.03</v>
+        <v>0.00561797752808989</v>
       </c>
       <c r="F5">
-        <v>0.04</v>
+        <v>0.0187265917602996</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.0749063670411985</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="I5">
-        <v>0.91</v>
+        <v>0.898876404494382</v>
       </c>
       <c r="J5">
-        <v>0.94</v>
+        <v>0.958801498127341</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.803370786516854</v>
       </c>
       <c r="L5">
-        <v>0.92</v>
+        <v>0.975655430711611</v>
       </c>
       <c r="M5">
-        <v>0.03</v>
+        <v>0.00561797752808989</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="O5">
-        <v>0.99</v>
+        <v>0.98501872659176</v>
       </c>
       <c r="P5">
-        <v>0.24</v>
+        <v>0.0655430711610487</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.8</v>
+        <v>0.926966292134832</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.96</v>
+        <v>0.97752808988764</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00374531835205993</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00187265917602996</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00187265917602996</v>
       </c>
     </row>
   </sheetData>
